--- a/results/ResultsAllBenchmarkFunctions.xlsx
+++ b/results/ResultsAllBenchmarkFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HMResultsReader\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{786A31B2-9D43-4956-B5B7-FFADE13F19FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943AEA88-BB27-4C92-B9AB-BC208817AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{B5E23A08-010F-423A-986A-E03164EAF7AC}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{B5E23A08-010F-423A-986A-E03164EAF7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>schwefel</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>griewank</t>
+  </si>
+  <si>
+    <t>sphere</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B44548-6DDA-4E9D-BC64-4A65D6A95735}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A42" sqref="A42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,6 +1246,46 @@
         <v>571.00409419076402</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+      <c r="D41">
+        <v>-0.80213340802532895</v>
+      </c>
+      <c r="E41">
+        <v>8.4551908602247799E-3</v>
+      </c>
+      <c r="F41">
+        <v>0.70527549719833904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>100000</v>
+      </c>
+      <c r="D42">
+        <v>-1.41779786916939</v>
+      </c>
+      <c r="E42">
+        <v>0.3646272001161</v>
+      </c>
+      <c r="F42">
+        <v>1.5228704666623201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
